--- a/Data/dps and hps.xlsx
+++ b/Data/dps and hps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\project_mag\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6FA43C5-2A40-4E08-94AF-C1AF7D820D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE6F0CB2-FDF6-4409-8E5D-E35F03A25A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="37">
   <si>
     <t>id</t>
   </si>
@@ -108,13 +108,59 @@
   </si>
   <si>
     <t>expected damage mutifactor</t>
+  </si>
+  <si>
+    <t>1-1</t>
+  </si>
+  <si>
+    <t>1-2</t>
+  </si>
+  <si>
+    <t>1-3</t>
+  </si>
+  <si>
+    <t>1-4</t>
+  </si>
+  <si>
+    <t>1-5</t>
+  </si>
+  <si>
+    <t>muti by</t>
+  </si>
+  <si>
+    <t>expected HPS</t>
+  </si>
+  <si>
+    <t>2-1</t>
+  </si>
+  <si>
+    <t>2-2</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>2-4</t>
+  </si>
+  <si>
+    <t>2-5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,18 +185,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -186,14 +242,14 @@
     <tableColumn id="10" xr3:uid="{BD99B43C-13F4-4136-93BD-10C10921160D}" name="damage per hit"/>
     <tableColumn id="13" xr3:uid="{00911982-CDFE-48E2-88C6-FD0BFBAB3BEE}" name="reload time"/>
     <tableColumn id="14" xr3:uid="{B5BC5879-8A88-4F51-81FE-895168AF0FE0}" name="expected damage mutifactor"/>
-    <tableColumn id="12" xr3:uid="{57E0BE0F-BEFE-4DE8-8B2F-706C7C1CC8EA}" name="max targets" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{3FD67755-3F1F-4F7A-9A45-3AF7C55571F2}" name="rate of fire" dataDxfId="2">
+    <tableColumn id="12" xr3:uid="{57E0BE0F-BEFE-4DE8-8B2F-706C7C1CC8EA}" name="max targets" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{3FD67755-3F1F-4F7A-9A45-3AF7C55571F2}" name="rate of fire" dataDxfId="4">
       <calculatedColumnFormula>(1 / 表格1[[#This Row],[reload time]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="single target DPS" dataDxfId="1">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="single target DPS" dataDxfId="3">
       <calculatedColumnFormula>(表格1[[#This Row],[damage per hit]] * 表格1[[#This Row],[rate of fire]] * 表格1[[#This Row],[expected damage mutifactor]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="muti target DPS" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="muti target DPS" dataDxfId="2"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="item value"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -204,11 +260,26 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表格2" displayName="表格2" ref="N2:R25">
   <autoFilter ref="N2:R25" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="map id"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="map id" dataDxfId="1" dataCellStyle="Comma"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="level"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="single target HP"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="spawns per second"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="total HPS"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="total HPS" dataDxfId="0">
+      <calculatedColumnFormula>(表格2[[#This Row],[single target HP]] * 表格2[[#This Row],[spawns per second]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{70233EDA-9A88-4217-A82F-0BEAD8305139}" name="Table3" displayName="Table3" ref="T2:U25" totalsRowShown="0">
+  <autoFilter ref="T2:U25" xr:uid="{70233EDA-9A88-4217-A82F-0BEAD8305139}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{0B6AE5B2-F653-47EE-84B4-C7E34699AEC5}" name="expected HPS">
+      <calculatedColumnFormula>(T2 * U3)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{4208A9A7-9DDA-484D-9DD2-851373AA838B}" name="muti by"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -424,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:R54"/>
+  <dimension ref="A2:U54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,9 +516,14 @@
     <col min="12" max="12" width="16.7109375" bestFit="1"/>
     <col min="13" max="13" width="19.5703125" bestFit="1"/>
     <col min="14" max="14" width="11.140625" bestFit="1"/>
+    <col min="16" max="16" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.28515625" customWidth="1"/>
+    <col min="21" max="21" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -496,8 +572,14 @@
       <c r="R2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -531,8 +613,30 @@
         <f>(表格1[[#This Row],[single target DPS]] * 表格1[[#This Row],[max targets]])</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N3" s="4">
+        <v>1</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3">
+        <v>10</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <f>(表格2[[#This Row],[single target HP]] * 表格2[[#This Row],[spawns per second]])</f>
+        <v>10</v>
+      </c>
+      <c r="T3">
+        <v>30</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -566,8 +670,31 @@
         <f>(表格1[[#This Row],[single target DPS]] * 表格1[[#This Row],[max targets]])</f>
         <v>62.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N4" s="4">
+        <v>2</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4">
+        <v>12</v>
+      </c>
+      <c r="Q4">
+        <v>1.5</v>
+      </c>
+      <c r="R4">
+        <f>(表格2[[#This Row],[single target HP]] * 表格2[[#This Row],[spawns per second]])</f>
+        <v>18</v>
+      </c>
+      <c r="T4">
+        <f>(T3 * U4)</f>
+        <v>36</v>
+      </c>
+      <c r="U4">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -601,8 +728,31 @@
         <f>(表格1[[#This Row],[single target DPS]] * 表格1[[#This Row],[max targets]])</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N5" s="4">
+        <v>3</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5">
+        <v>12</v>
+      </c>
+      <c r="Q5">
+        <v>2</v>
+      </c>
+      <c r="R5">
+        <f>(表格2[[#This Row],[single target HP]] * 表格2[[#This Row],[spawns per second]])</f>
+        <v>24</v>
+      </c>
+      <c r="T5">
+        <f t="shared" ref="T5:T25" si="0">(T4 * U5)</f>
+        <v>43.199999999999996</v>
+      </c>
+      <c r="U5">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -636,8 +786,31 @@
         <f>(表格1[[#This Row],[single target DPS]] * 表格1[[#This Row],[max targets]])</f>
         <v>138.46153846153845</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N6" s="4">
+        <v>4</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6">
+        <v>13</v>
+      </c>
+      <c r="Q6">
+        <v>4</v>
+      </c>
+      <c r="R6">
+        <f>(表格2[[#This Row],[single target HP]] * 表格2[[#This Row],[spawns per second]])</f>
+        <v>52</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="0"/>
+        <v>51.839999999999996</v>
+      </c>
+      <c r="U6">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -671,8 +844,31 @@
         <f>(表格1[[#This Row],[single target DPS]] * 表格1[[#This Row],[max targets]])</f>
         <v>366.66666666666674</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N7" s="4">
+        <v>5</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P7">
+        <v>25</v>
+      </c>
+      <c r="Q7">
+        <v>3</v>
+      </c>
+      <c r="R7">
+        <f>(表格2[[#This Row],[single target HP]] * 表格2[[#This Row],[spawns per second]])</f>
+        <v>75</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="0"/>
+        <v>77.759999999999991</v>
+      </c>
+      <c r="U7">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -706,8 +902,31 @@
         <f>(表格1[[#This Row],[single target DPS]] * 表格1[[#This Row],[max targets]])</f>
         <v>200</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N8" s="4">
+        <v>6</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P8">
+        <v>20</v>
+      </c>
+      <c r="Q8">
+        <v>4</v>
+      </c>
+      <c r="R8">
+        <f>(表格2[[#This Row],[single target HP]] * 表格2[[#This Row],[spawns per second]])</f>
+        <v>80</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="0"/>
+        <v>77.759999999999991</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -741,8 +960,31 @@
         <f>(表格1[[#This Row],[single target DPS]] * 表格1[[#This Row],[max targets]])</f>
         <v>400</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N9" s="4">
+        <v>7</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P9">
+        <v>23</v>
+      </c>
+      <c r="Q9">
+        <v>4</v>
+      </c>
+      <c r="R9">
+        <f>(表格2[[#This Row],[single target HP]] * 表格2[[#This Row],[spawns per second]])</f>
+        <v>92</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="0"/>
+        <v>93.311999999999983</v>
+      </c>
+      <c r="U9">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -776,8 +1018,31 @@
         <f>(表格1[[#This Row],[single target DPS]] * 表格1[[#This Row],[max targets]])</f>
         <v>600</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N10" s="4">
+        <v>8</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P10">
+        <v>28</v>
+      </c>
+      <c r="Q10">
+        <v>4</v>
+      </c>
+      <c r="R10">
+        <f>(表格2[[#This Row],[single target HP]] * 表格2[[#This Row],[spawns per second]])</f>
+        <v>112</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="0"/>
+        <v>111.97439999999997</v>
+      </c>
+      <c r="U10">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -811,8 +1076,31 @@
         <f>(表格1[[#This Row],[single target DPS]] * 表格1[[#This Row],[max targets]])</f>
         <v>750</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N11" s="4">
+        <v>9</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P11">
+        <v>27</v>
+      </c>
+      <c r="Q11">
+        <v>5</v>
+      </c>
+      <c r="R11">
+        <f>(表格2[[#This Row],[single target HP]] * 表格2[[#This Row],[spawns per second]])</f>
+        <v>135</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="0"/>
+        <v>134.36927999999997</v>
+      </c>
+      <c r="U11">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -846,8 +1134,31 @@
         <f>(表格1[[#This Row],[single target DPS]] * 表格1[[#This Row],[max targets]])</f>
         <v>1500</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N12" s="4">
+        <v>10</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="P12">
+        <v>29</v>
+      </c>
+      <c r="Q12">
+        <v>7</v>
+      </c>
+      <c r="R12">
+        <f>(表格2[[#This Row],[single target HP]] * 表格2[[#This Row],[spawns per second]])</f>
+        <v>203</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="0"/>
+        <v>201.55391999999995</v>
+      </c>
+      <c r="U12">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3</v>
       </c>
@@ -881,8 +1192,20 @@
         <f>(表格1[[#This Row],[single target DPS]] * 表格1[[#This Row],[max targets]])</f>
         <v>142.85714285714286</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N13" s="4"/>
+      <c r="R13">
+        <f>(表格2[[#This Row],[single target HP]] * 表格2[[#This Row],[spawns per second]])</f>
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <f>(T12 * U13)</f>
+        <v>201.55391999999995</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3</v>
       </c>
@@ -916,8 +1239,20 @@
         <f>(表格1[[#This Row],[single target DPS]] * 表格1[[#This Row],[max targets]])</f>
         <v>300</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N14" s="4"/>
+      <c r="R14">
+        <f>(表格2[[#This Row],[single target HP]] * 表格2[[#This Row],[spawns per second]])</f>
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <f>(T13 * U14)</f>
+        <v>241.86470399999993</v>
+      </c>
+      <c r="U14">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
@@ -951,8 +1286,20 @@
         <f>(表格1[[#This Row],[single target DPS]] * 表格1[[#This Row],[max targets]])</f>
         <v>500</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N15" s="4"/>
+      <c r="R15">
+        <f>(表格2[[#This Row],[single target HP]] * 表格2[[#This Row],[spawns per second]])</f>
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="0"/>
+        <v>290.23764479999988</v>
+      </c>
+      <c r="U15">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3</v>
       </c>
@@ -986,8 +1333,20 @@
         <f>(表格1[[#This Row],[single target DPS]] * 表格1[[#This Row],[max targets]])</f>
         <v>750</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N16" s="4"/>
+      <c r="R16">
+        <f>(表格2[[#This Row],[single target HP]] * 表格2[[#This Row],[spawns per second]])</f>
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="0"/>
+        <v>348.28517375999985</v>
+      </c>
+      <c r="U16">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3</v>
       </c>
@@ -1021,8 +1380,20 @@
         <f>(表格1[[#This Row],[single target DPS]] * 表格1[[#This Row],[max targets]])</f>
         <v>2000</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N17" s="4"/>
+      <c r="R17">
+        <f>(表格2[[#This Row],[single target HP]] * 表格2[[#This Row],[spawns per second]])</f>
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="0"/>
+        <v>417.94220851199981</v>
+      </c>
+      <c r="U17">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>4</v>
       </c>
@@ -1056,8 +1427,20 @@
         <f>(表格1[[#This Row],[single target DPS]] * 表格1[[#This Row],[max targets]])</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N18" s="4"/>
+      <c r="R18">
+        <f>(表格2[[#This Row],[single target HP]] * 表格2[[#This Row],[spawns per second]])</f>
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="0"/>
+        <v>501.53065021439977</v>
+      </c>
+      <c r="U18">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>4</v>
       </c>
@@ -1091,8 +1474,20 @@
         <f>(表格1[[#This Row],[single target DPS]] * 表格1[[#This Row],[max targets]])</f>
         <v>41.666666666666671</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N19" s="4"/>
+      <c r="R19">
+        <f>(表格2[[#This Row],[single target HP]] * 表格2[[#This Row],[spawns per second]])</f>
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="0"/>
+        <v>601.83678025727966</v>
+      </c>
+      <c r="U19">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>4</v>
       </c>
@@ -1126,8 +1521,20 @@
         <f>(表格1[[#This Row],[single target DPS]] * 表格1[[#This Row],[max targets]])</f>
         <v>55.555555555555557</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N20" s="4"/>
+      <c r="R20">
+        <f>(表格2[[#This Row],[single target HP]] * 表格2[[#This Row],[spawns per second]])</f>
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="0"/>
+        <v>722.20413630873554</v>
+      </c>
+      <c r="U20">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>4</v>
       </c>
@@ -1161,8 +1568,20 @@
         <f>(表格1[[#This Row],[single target DPS]] * 表格1[[#This Row],[max targets]])</f>
         <v>150</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N21" s="4"/>
+      <c r="R21">
+        <f>(表格2[[#This Row],[single target HP]] * 表格2[[#This Row],[spawns per second]])</f>
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="0"/>
+        <v>866.64496357048267</v>
+      </c>
+      <c r="U21">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>4</v>
       </c>
@@ -1196,8 +1615,20 @@
         <f>(表格1[[#This Row],[single target DPS]] * 表格1[[#This Row],[max targets]])</f>
         <v>514.28571428571433</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N22" s="4"/>
+      <c r="R22">
+        <f>(表格2[[#This Row],[single target HP]] * 表格2[[#This Row],[spawns per second]])</f>
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="0"/>
+        <v>1039.9739562845791</v>
+      </c>
+      <c r="U22">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>5</v>
       </c>
@@ -1231,8 +1662,20 @@
         <f>(表格1[[#This Row],[single target DPS]] * 表格1[[#This Row],[max targets]])</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N23" s="4"/>
+      <c r="R23">
+        <f>(表格2[[#This Row],[single target HP]] * 表格2[[#This Row],[spawns per second]])</f>
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="0"/>
+        <v>1247.9687475414948</v>
+      </c>
+      <c r="U23">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5</v>
       </c>
@@ -1266,8 +1709,20 @@
         <f>(表格1[[#This Row],[single target DPS]] * 表格1[[#This Row],[max targets]])</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N24" s="4"/>
+      <c r="R24">
+        <f>(表格2[[#This Row],[single target HP]] * 表格2[[#This Row],[spawns per second]])</f>
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="0"/>
+        <v>1497.5624970497938</v>
+      </c>
+      <c r="U24">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>5</v>
       </c>
@@ -1301,8 +1756,20 @@
         <f>(表格1[[#This Row],[single target DPS]] * 表格1[[#This Row],[max targets]])</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N25" s="4"/>
+      <c r="R25">
+        <f>(表格2[[#This Row],[single target HP]] * 表格2[[#This Row],[spawns per second]])</f>
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="0"/>
+        <v>1797.0749964597526</v>
+      </c>
+      <c r="U25">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>5</v>
       </c>
@@ -1337,7 +1804,7 @@
         <v>26.666666666666664</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>5</v>
       </c>
@@ -1372,7 +1839,7 @@
         <v>66.666666666666657</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>6</v>
       </c>
@@ -1407,7 +1874,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>6</v>
       </c>
@@ -1442,7 +1909,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>6</v>
       </c>
@@ -1477,7 +1944,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>6</v>
       </c>
@@ -1512,7 +1979,7 @@
         <v>112.5</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>6</v>
       </c>
@@ -2251,38 +2718,39 @@
       <c r="G53" s="2"/>
       <c r="H53" s="1" t="e">
         <f>(1 / 表格1[[#This Row],[reload time]])</f>
-        <v>#VALUE!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I53" s="1" t="e">
         <f>(表格1[[#This Row],[damage per hit]] * 表格1[[#This Row],[rate of fire]] * 表格1[[#This Row],[expected damage mutifactor]])</f>
-        <v>#VALUE!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J53" s="1" t="e">
         <f>(表格1[[#This Row],[single target DPS]] * 表格1[[#This Row],[max targets]])</f>
-        <v>#VALUE!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G54" s="2"/>
       <c r="H54" s="1" t="e">
         <f>(1 / 表格1[[#This Row],[reload time]])</f>
-        <v>#VALUE!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I54" s="1" t="e">
         <f>(表格1[[#This Row],[damage per hit]] * 表格1[[#This Row],[rate of fire]] * 表格1[[#This Row],[expected damage mutifactor]])</f>
-        <v>#VALUE!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J54" s="1" t="e">
         <f>(表格1[[#This Row],[single target DPS]] * 表格1[[#This Row],[max targets]])</f>
-        <v>#VALUE!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <tableParts count="2">
+  <tableParts count="3">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Data/dps and hps.xlsx
+++ b/Data/dps and hps.xlsx
@@ -1,39 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\project_mag\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE6F0CB2-FDF6-4409-8E5D-E35F03A25A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>id</t>
   </si>
@@ -44,31 +27,82 @@
     <t>level</t>
   </si>
   <si>
-    <t>single target DPS</t>
-  </si>
-  <si>
-    <t>muti target DPS</t>
-  </si>
-  <si>
-    <t>item value</t>
-  </si>
-  <si>
-    <t>map id</t>
-  </si>
-  <si>
-    <t>single target HP</t>
-  </si>
-  <si>
-    <t>spawns per second</t>
-  </si>
-  <si>
-    <t>total HPS</t>
-  </si>
-  <si>
-    <t>machine gun</t>
-  </si>
-  <si>
-    <t>charged blaster</t>
+    <t xml:space="preserve">damage per hit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reload time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expected damage mutifactor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max targets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rate of fire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">single target DPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">muti target DPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">item value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">map id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">single target HP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spawns per second</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total HPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expected HPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">muti by</t>
+  </si>
+  <si>
+    <t xml:space="preserve">machine gun</t>
+  </si>
+  <si>
+    <t>1-1</t>
+  </si>
+  <si>
+    <t>1-2</t>
+  </si>
+  <si>
+    <t>1-3</t>
+  </si>
+  <si>
+    <t>1-4</t>
+  </si>
+  <si>
+    <t>1-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">charged blaster</t>
+  </si>
+  <si>
+    <t>2-1</t>
+  </si>
+  <si>
+    <t>2-2</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>2-4</t>
+  </si>
+  <si>
+    <t>2-5</t>
   </si>
   <si>
     <t>spear</t>
@@ -86,83 +120,26 @@
     <t>orbit</t>
   </si>
   <si>
-    <t>rocket luncher</t>
+    <t xml:space="preserve">rocket luncher</t>
   </si>
   <si>
     <t>laser</t>
   </si>
   <si>
-    <t>chainsaw luncher</t>
-  </si>
-  <si>
-    <t>damage per hit</t>
-  </si>
-  <si>
-    <t>max targets</t>
-  </si>
-  <si>
-    <t>reload time</t>
-  </si>
-  <si>
-    <t>rate of fire</t>
-  </si>
-  <si>
-    <t>expected damage mutifactor</t>
-  </si>
-  <si>
-    <t>1-1</t>
-  </si>
-  <si>
-    <t>1-2</t>
-  </si>
-  <si>
-    <t>1-3</t>
-  </si>
-  <si>
-    <t>1-4</t>
-  </si>
-  <si>
-    <t>1-5</t>
-  </si>
-  <si>
-    <t>muti by</t>
-  </si>
-  <si>
-    <t>expected HPS</t>
-  </si>
-  <si>
-    <t>2-1</t>
-  </si>
-  <si>
-    <t>2-2</t>
-  </si>
-  <si>
-    <t>2-3</t>
-  </si>
-  <si>
-    <t>2-4</t>
-  </si>
-  <si>
-    <t>2-5</t>
+    <t xml:space="preserve">chainsaw luncher</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
@@ -178,23 +155,23 @@
   </fills>
   <borders count="1">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="164" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="1" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="165" xfId="1" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -202,10 +179,7 @@
   </cellStyles>
   <dxfs count="6">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -217,7 +191,10 @@
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -233,60 +210,335 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表格1" displayName="表格1" ref="A2:K54">
-  <autoFilter ref="A2:K54" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" displayName="表格1" ref="A2:K54">
+  <autoFilter ref="A2:K54"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="name"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="level"/>
-    <tableColumn id="10" xr3:uid="{BD99B43C-13F4-4136-93BD-10C10921160D}" name="damage per hit"/>
-    <tableColumn id="13" xr3:uid="{00911982-CDFE-48E2-88C6-FD0BFBAB3BEE}" name="reload time"/>
-    <tableColumn id="14" xr3:uid="{B5BC5879-8A88-4F51-81FE-895168AF0FE0}" name="expected damage mutifactor"/>
-    <tableColumn id="12" xr3:uid="{57E0BE0F-BEFE-4DE8-8B2F-706C7C1CC8EA}" name="max targets" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{3FD67755-3F1F-4F7A-9A45-3AF7C55571F2}" name="rate of fire" dataDxfId="4">
-      <calculatedColumnFormula>(1 / 表格1[[#This Row],[reload time]])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="single target DPS" dataDxfId="3">
-      <calculatedColumnFormula>(表格1[[#This Row],[damage per hit]] * 表格1[[#This Row],[rate of fire]] * 表格1[[#This Row],[expected damage mutifactor]])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="muti target DPS" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="item value"/>
+    <tableColumn id="1" name="id"/>
+    <tableColumn id="2" name="name"/>
+    <tableColumn id="3" name="level"/>
+    <tableColumn id="4" name="damage per hit"/>
+    <tableColumn id="5" name="reload time"/>
+    <tableColumn id="6" name="expected damage mutifactor"/>
+    <tableColumn id="7" name="max targets" dataDxfId="0"/>
+    <tableColumn id="8" name="rate of fire" dataDxfId="1"/>
+    <tableColumn id="9" name="single target DPS" dataDxfId="2"/>
+    <tableColumn id="10" name="muti target DPS" dataDxfId="3"/>
+    <tableColumn id="11" name="item value"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表格2" displayName="表格2" ref="N2:R25">
-  <autoFilter ref="N2:R25" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" displayName="表格2" ref="N2:R25">
+  <autoFilter ref="N2:R25"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="map id" dataDxfId="1" dataCellStyle="Comma"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="level"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="single target HP"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="spawns per second"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="total HPS" dataDxfId="0">
-      <calculatedColumnFormula>(表格2[[#This Row],[single target HP]] * 表格2[[#This Row],[spawns per second]])</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="1" name="map id" dataDxfId="4"/>
+    <tableColumn id="2" name="level"/>
+    <tableColumn id="3" name="single target HP"/>
+    <tableColumn id="4" name="spawns per second"/>
+    <tableColumn id="5" name="total HPS" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{70233EDA-9A88-4217-A82F-0BEAD8305139}" name="Table3" displayName="Table3" ref="T2:U25" totalsRowShown="0">
-  <autoFilter ref="T2:U25" xr:uid="{70233EDA-9A88-4217-A82F-0BEAD8305139}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" displayName="Table3" ref="T2:U25">
+  <autoFilter ref="T2:U25"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{0B6AE5B2-F653-47EE-84B4-C7E34699AEC5}" name="expected HPS">
-      <calculatedColumnFormula>(T2 * U3)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="2" xr3:uid="{4208A9A7-9DDA-484D-9DD2-851373AA838B}" name="muti by"/>
+    <tableColumn id="1" name="expected HPS"/>
+    <tableColumn id="2" name="muti by"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="New Office">
       <a:dk1>
@@ -489,41 +741,39 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:U54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView topLeftCell="A19" zoomScale="100" workbookViewId="0">
+      <selection activeCell="P4" activeCellId="0" sqref="P4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="15.42578125" bestFit="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1"/>
-    <col min="4" max="4" width="17.7109375" bestFit="1"/>
-    <col min="5" max="5" width="16.7109375" bestFit="1"/>
-    <col min="6" max="6" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17" bestFit="1"/>
-    <col min="12" max="12" width="16.7109375" bestFit="1"/>
-    <col min="13" max="13" width="19.5703125" bestFit="1"/>
-    <col min="14" max="14" width="11.140625" bestFit="1"/>
-    <col min="16" max="16" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.28515625" customWidth="1"/>
-    <col min="21" max="21" width="9.85546875" customWidth="1"/>
+    <col bestFit="1" min="2" max="2" width="15.42578125"/>
+    <col bestFit="1" min="3" max="3" width="7.28515625"/>
+    <col bestFit="1" min="4" max="4" width="17.7109375"/>
+    <col bestFit="1" min="5" max="5" width="16.7109375"/>
+    <col bestFit="1" customWidth="1" min="6" max="6" width="29.28515625"/>
+    <col bestFit="1" customWidth="1" min="7" max="7" width="12.7109375"/>
+    <col customWidth="1" min="8" max="8" width="18.5703125"/>
+    <col bestFit="1" customWidth="1" min="9" max="9" width="18.28515625"/>
+    <col bestFit="1" customWidth="1" min="10" max="10" width="17.140625"/>
+    <col bestFit="1" min="11" max="11" width="17"/>
+    <col bestFit="1" min="12" max="12" width="16.7109375"/>
+    <col bestFit="1" min="13" max="13" width="19.5703125"/>
+    <col bestFit="1" min="14" max="14" width="11.140625"/>
+    <col bestFit="1" customWidth="1" min="16" max="16" width="17.28515625"/>
+    <col bestFit="1" customWidth="1" min="17" max="17" width="20.28515625"/>
+    <col bestFit="1" customWidth="1" min="18" max="18" width="11.28515625"/>
+    <col customWidth="1" min="20" max="20" width="15.28515625"/>
+    <col customWidth="1" min="21" max="21" width="9.85546875"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -534,57 +784,57 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="I2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="O2" t="s">
         <v>2</v>
       </c>
       <c r="P2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="Q2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="R2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="T2" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="U2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -593,7 +843,7 @@
         <v>5</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" s="1">
         <v>10</v>
@@ -603,21 +853,21 @@
       </c>
       <c r="H3" s="1">
         <f>(1 / 表格1[[#This Row],[reload time]])</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I3" s="1">
         <f>(表格1[[#This Row],[damage per hit]] * 表格1[[#This Row],[rate of fire]] * 表格1[[#This Row],[expected damage mutifactor]])</f>
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="J3" s="1">
         <f>(表格1[[#This Row],[single target DPS]] * 表格1[[#This Row],[max targets]])</f>
-        <v>50</v>
-      </c>
-      <c r="N3" s="4">
-        <v>1</v>
-      </c>
-      <c r="O3" s="3" t="s">
         <v>25</v>
+      </c>
+      <c r="N3" s="3">
+        <v>1</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="P3">
         <v>10</v>
@@ -636,21 +886,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E4" s="1">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="F4" s="1">
         <v>10</v>
@@ -659,22 +909,22 @@
         <v>1</v>
       </c>
       <c r="H4" s="1">
-        <f>(1 / 表格1[[#This Row],[reload time]])</f>
-        <v>1.25</v>
+        <f>(1/表格1[[#This Row],[reload time]])</f>
+        <v>0.55555555555555558</v>
       </c>
       <c r="I4" s="1">
-        <f>(表格1[[#This Row],[damage per hit]] * 表格1[[#This Row],[rate of fire]] * 表格1[[#This Row],[expected damage mutifactor]])</f>
-        <v>62.5</v>
+        <f>(表格1[[#This Row],[damage per hit]]*表格1[[#This Row],[rate of fire]]*表格1[[#This Row],[expected damage mutifactor]])</f>
+        <v>33.333333333333336</v>
       </c>
       <c r="J4" s="1">
-        <f>(表格1[[#This Row],[single target DPS]] * 表格1[[#This Row],[max targets]])</f>
-        <v>62.5</v>
-      </c>
-      <c r="N4" s="4">
-        <v>2</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>26</v>
+        <f>(表格1[[#This Row],[single target DPS]]*表格1[[#This Row],[max targets]])</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="N4" s="3">
+        <v>2</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="P4">
         <v>12</v>
@@ -683,23 +933,23 @@
         <v>1.5</v>
       </c>
       <c r="R4">
-        <f>(表格2[[#This Row],[single target HP]] * 表格2[[#This Row],[spawns per second]])</f>
+        <f>(表格2[[#This Row],[single target HP]]*表格2[[#This Row],[spawns per second]])</f>
         <v>18</v>
       </c>
       <c r="T4">
-        <f>(T3 * U4)</f>
+        <f t="shared" ref="T4:T25" si="0">(T3 * U4)</f>
         <v>36</v>
       </c>
       <c r="U4">
         <v>1.2</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -708,7 +958,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="1">
-        <v>0.7</v>
+        <v>1.6000000000000001</v>
       </c>
       <c r="F5" s="1">
         <v>10</v>
@@ -717,22 +967,22 @@
         <v>1</v>
       </c>
       <c r="H5" s="1">
-        <f>(1 / 表格1[[#This Row],[reload time]])</f>
-        <v>1.4285714285714286</v>
+        <f>(1/表格1[[#This Row],[reload time]])</f>
+        <v>0.625</v>
       </c>
       <c r="I5" s="1">
-        <f>(表格1[[#This Row],[damage per hit]] * 表格1[[#This Row],[rate of fire]] * 表格1[[#This Row],[expected damage mutifactor]])</f>
-        <v>100</v>
+        <f>(表格1[[#This Row],[damage per hit]]*表格1[[#This Row],[rate of fire]]*表格1[[#This Row],[expected damage mutifactor]])</f>
+        <v>43.75</v>
       </c>
       <c r="J5" s="1">
-        <f>(表格1[[#This Row],[single target DPS]] * 表格1[[#This Row],[max targets]])</f>
-        <v>100</v>
-      </c>
-      <c r="N5" s="4">
+        <f>(表格1[[#This Row],[single target DPS]]*表格1[[#This Row],[max targets]])</f>
+        <v>43.75</v>
+      </c>
+      <c r="N5" s="3">
         <v>3</v>
       </c>
-      <c r="O5" s="3" t="s">
-        <v>27</v>
+      <c r="O5" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="P5">
         <v>12</v>
@@ -741,23 +991,23 @@
         <v>2</v>
       </c>
       <c r="R5">
-        <f>(表格2[[#This Row],[single target HP]] * 表格2[[#This Row],[spawns per second]])</f>
+        <f>(表格2[[#This Row],[single target HP]]*表格2[[#This Row],[spawns per second]])</f>
         <v>24</v>
       </c>
       <c r="T5">
-        <f t="shared" ref="T5:T25" si="0">(T4 * U5)</f>
+        <f t="shared" si="0"/>
         <v>43.199999999999996</v>
       </c>
       <c r="U5">
         <v>1.2</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -766,7 +1016,7 @@
         <v>9</v>
       </c>
       <c r="E6" s="1">
-        <v>0.65</v>
+        <v>1.3</v>
       </c>
       <c r="F6" s="1">
         <v>10</v>
@@ -775,22 +1025,22 @@
         <v>1</v>
       </c>
       <c r="H6" s="1">
-        <f>(1 / 表格1[[#This Row],[reload time]])</f>
-        <v>1.5384615384615383</v>
+        <f>(1/表格1[[#This Row],[reload time]])</f>
+        <v>0.76923076923076916</v>
       </c>
       <c r="I6" s="1">
-        <f>(表格1[[#This Row],[damage per hit]] * 表格1[[#This Row],[rate of fire]] * 表格1[[#This Row],[expected damage mutifactor]])</f>
-        <v>138.46153846153845</v>
+        <f>(表格1[[#This Row],[damage per hit]]*表格1[[#This Row],[rate of fire]]*表格1[[#This Row],[expected damage mutifactor]])</f>
+        <v>69.230769230769226</v>
       </c>
       <c r="J6" s="1">
-        <f>(表格1[[#This Row],[single target DPS]] * 表格1[[#This Row],[max targets]])</f>
-        <v>138.46153846153845</v>
-      </c>
-      <c r="N6" s="4">
+        <f>(表格1[[#This Row],[single target DPS]]*表格1[[#This Row],[max targets]])</f>
+        <v>69.230769230769226</v>
+      </c>
+      <c r="N6" s="3">
         <v>4</v>
       </c>
-      <c r="O6" s="3" t="s">
-        <v>28</v>
+      <c r="O6" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="P6">
         <v>13</v>
@@ -799,7 +1049,7 @@
         <v>4</v>
       </c>
       <c r="R6">
-        <f>(表格2[[#This Row],[single target HP]] * 表格2[[#This Row],[spawns per second]])</f>
+        <f>(表格2[[#This Row],[single target HP]]*表格2[[#This Row],[spawns per second]])</f>
         <v>52</v>
       </c>
       <c r="T6">
@@ -810,12 +1060,12 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -824,7 +1074,7 @@
         <v>11</v>
       </c>
       <c r="E7" s="1">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="F7" s="1">
         <v>10</v>
@@ -833,22 +1083,22 @@
         <v>2</v>
       </c>
       <c r="H7" s="1">
-        <f>(1 / 表格1[[#This Row],[reload time]])</f>
-        <v>1.6666666666666667</v>
+        <f>(1/表格1[[#This Row],[reload time]])</f>
+        <v>1</v>
       </c>
       <c r="I7" s="1">
-        <f>(表格1[[#This Row],[damage per hit]] * 表格1[[#This Row],[rate of fire]] * 表格1[[#This Row],[expected damage mutifactor]])</f>
-        <v>183.33333333333337</v>
+        <f>(表格1[[#This Row],[damage per hit]]*表格1[[#This Row],[rate of fire]]*表格1[[#This Row],[expected damage mutifactor]])</f>
+        <v>110</v>
       </c>
       <c r="J7" s="1">
-        <f>(表格1[[#This Row],[single target DPS]] * 表格1[[#This Row],[max targets]])</f>
-        <v>366.66666666666674</v>
-      </c>
-      <c r="N7" s="4">
-        <v>5</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>29</v>
+        <f>(表格1[[#This Row],[single target DPS]]*表格1[[#This Row],[max targets]])</f>
+        <v>220</v>
+      </c>
+      <c r="N7" s="3">
+        <v>5</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="P7">
         <v>25</v>
@@ -857,7 +1107,7 @@
         <v>3</v>
       </c>
       <c r="R7">
-        <f>(表格2[[#This Row],[single target HP]] * 表格2[[#This Row],[spawns per second]])</f>
+        <f>(表格2[[#This Row],[single target HP]]*表格2[[#This Row],[spawns per second]])</f>
         <v>75</v>
       </c>
       <c r="T7">
@@ -868,21 +1118,21 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8">
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8" s="1">
-        <v>0.1</v>
+        <v>0.34999999999999998</v>
       </c>
       <c r="F8" s="1">
         <v>2</v>
@@ -891,22 +1141,22 @@
         <v>5</v>
       </c>
       <c r="H8" s="1">
-        <f>(1 / 表格1[[#This Row],[reload time]])</f>
-        <v>10</v>
+        <f>(1/表格1[[#This Row],[reload time]])</f>
+        <v>2.8571428571428572</v>
       </c>
       <c r="I8" s="1">
-        <f>(表格1[[#This Row],[damage per hit]] * 表格1[[#This Row],[rate of fire]] * 表格1[[#This Row],[expected damage mutifactor]])</f>
-        <v>40</v>
+        <f>(表格1[[#This Row],[damage per hit]]*表格1[[#This Row],[rate of fire]]*表格1[[#This Row],[expected damage mutifactor]])</f>
+        <v>17.142857142857142</v>
       </c>
       <c r="J8" s="1">
-        <f>(表格1[[#This Row],[single target DPS]] * 表格1[[#This Row],[max targets]])</f>
-        <v>200</v>
-      </c>
-      <c r="N8" s="4">
+        <f>(表格1[[#This Row],[single target DPS]]*表格1[[#This Row],[max targets]])</f>
+        <v>85.714285714285708</v>
+      </c>
+      <c r="N8" s="3">
         <v>6</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>32</v>
+      <c r="O8" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="P8">
         <v>20</v>
@@ -915,7 +1165,7 @@
         <v>4</v>
       </c>
       <c r="R8">
-        <f>(表格2[[#This Row],[single target HP]] * 表格2[[#This Row],[spawns per second]])</f>
+        <f>(表格2[[#This Row],[single target HP]]*表格2[[#This Row],[spawns per second]])</f>
         <v>80</v>
       </c>
       <c r="T8">
@@ -926,12 +1176,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9">
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -940,7 +1190,7 @@
         <v>4</v>
       </c>
       <c r="E9" s="1">
-        <v>0.1</v>
+        <v>0.34999999999999998</v>
       </c>
       <c r="F9" s="1">
         <v>2</v>
@@ -949,22 +1199,22 @@
         <v>5</v>
       </c>
       <c r="H9" s="1">
-        <f>(1 / 表格1[[#This Row],[reload time]])</f>
-        <v>10</v>
+        <f>(1/表格1[[#This Row],[reload time]])</f>
+        <v>2.8571428571428572</v>
       </c>
       <c r="I9" s="1">
-        <f>(表格1[[#This Row],[damage per hit]] * 表格1[[#This Row],[rate of fire]] * 表格1[[#This Row],[expected damage mutifactor]])</f>
-        <v>80</v>
+        <f>(表格1[[#This Row],[damage per hit]]*表格1[[#This Row],[rate of fire]]*表格1[[#This Row],[expected damage mutifactor]])</f>
+        <v>22.857142857142858</v>
       </c>
       <c r="J9" s="1">
-        <f>(表格1[[#This Row],[single target DPS]] * 表格1[[#This Row],[max targets]])</f>
-        <v>400</v>
-      </c>
-      <c r="N9" s="4">
+        <f>(表格1[[#This Row],[single target DPS]]*表格1[[#This Row],[max targets]])</f>
+        <v>114.28571428571429</v>
+      </c>
+      <c r="N9" s="3">
         <v>7</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>33</v>
+      <c r="O9" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="P9">
         <v>23</v>
@@ -973,7 +1223,7 @@
         <v>4</v>
       </c>
       <c r="R9">
-        <f>(表格2[[#This Row],[single target HP]] * 表格2[[#This Row],[spawns per second]])</f>
+        <f>(表格2[[#This Row],[single target HP]]*表格2[[#This Row],[spawns per second]])</f>
         <v>92</v>
       </c>
       <c r="T9">
@@ -984,45 +1234,45 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10">
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10" s="1">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.40000000000000002</v>
+      </c>
+      <c r="F10" s="1">
         <v>4</v>
       </c>
-      <c r="E10" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="F10" s="1">
-        <v>3</v>
-      </c>
       <c r="G10" s="2">
         <v>5</v>
       </c>
       <c r="H10" s="1">
-        <f>(1 / 表格1[[#This Row],[reload time]])</f>
-        <v>10</v>
+        <f>(1/表格1[[#This Row],[reload time]])</f>
+        <v>2.5</v>
       </c>
       <c r="I10" s="1">
-        <f>(表格1[[#This Row],[damage per hit]] * 表格1[[#This Row],[rate of fire]] * 表格1[[#This Row],[expected damage mutifactor]])</f>
-        <v>120</v>
+        <f>(表格1[[#This Row],[damage per hit]]*表格1[[#This Row],[rate of fire]]*表格1[[#This Row],[expected damage mutifactor]])</f>
+        <v>50</v>
       </c>
       <c r="J10" s="1">
-        <f>(表格1[[#This Row],[single target DPS]] * 表格1[[#This Row],[max targets]])</f>
-        <v>600</v>
-      </c>
-      <c r="N10" s="4">
+        <f>(表格1[[#This Row],[single target DPS]]*表格1[[#This Row],[max targets]])</f>
+        <v>250</v>
+      </c>
+      <c r="N10" s="3">
         <v>8</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>34</v>
+      <c r="O10" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="P10">
         <v>28</v>
@@ -1031,7 +1281,7 @@
         <v>4</v>
       </c>
       <c r="R10">
-        <f>(表格2[[#This Row],[single target HP]] * 表格2[[#This Row],[spawns per second]])</f>
+        <f>(表格2[[#This Row],[single target HP]]*表格2[[#This Row],[spawns per second]])</f>
         <v>112</v>
       </c>
       <c r="T10">
@@ -1042,45 +1292,45 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11">
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C11">
         <v>4</v>
       </c>
       <c r="D11" s="1">
+        <v>6</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.40000000000000002</v>
+      </c>
+      <c r="F11" s="1">
         <v>4</v>
       </c>
-      <c r="E11" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="F11" s="1">
-        <v>3</v>
-      </c>
       <c r="G11" s="2">
         <v>5</v>
       </c>
       <c r="H11" s="1">
-        <f>(1 / 表格1[[#This Row],[reload time]])</f>
-        <v>12.5</v>
+        <f>(1/表格1[[#This Row],[reload time]])</f>
+        <v>2.5</v>
       </c>
       <c r="I11" s="1">
-        <f>(表格1[[#This Row],[damage per hit]] * 表格1[[#This Row],[rate of fire]] * 表格1[[#This Row],[expected damage mutifactor]])</f>
-        <v>150</v>
+        <f>(表格1[[#This Row],[damage per hit]]*表格1[[#This Row],[rate of fire]]*表格1[[#This Row],[expected damage mutifactor]])</f>
+        <v>60</v>
       </c>
       <c r="J11" s="1">
-        <f>(表格1[[#This Row],[single target DPS]] * 表格1[[#This Row],[max targets]])</f>
-        <v>750</v>
-      </c>
-      <c r="N11" s="4">
+        <f>(表格1[[#This Row],[single target DPS]]*表格1[[#This Row],[max targets]])</f>
+        <v>300</v>
+      </c>
+      <c r="N11" s="3">
         <v>9</v>
       </c>
-      <c r="O11" s="3" t="s">
-        <v>35</v>
+      <c r="O11" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="P11">
         <v>27</v>
@@ -1089,7 +1339,7 @@
         <v>5</v>
       </c>
       <c r="R11">
-        <f>(表格2[[#This Row],[single target HP]] * 表格2[[#This Row],[spawns per second]])</f>
+        <f>(表格2[[#This Row],[single target HP]]*表格2[[#This Row],[spawns per second]])</f>
         <v>135</v>
       </c>
       <c r="T11">
@@ -1100,12 +1350,12 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12">
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -1114,7 +1364,7 @@
         <v>6</v>
       </c>
       <c r="E12" s="1">
-        <v>0.08</v>
+        <v>0.26000000000000001</v>
       </c>
       <c r="F12" s="1">
         <v>4</v>
@@ -1123,22 +1373,22 @@
         <v>5</v>
       </c>
       <c r="H12" s="1">
-        <f>(1 / 表格1[[#This Row],[reload time]])</f>
-        <v>12.5</v>
+        <f>(1/表格1[[#This Row],[reload time]])</f>
+        <v>3.8461538461538458</v>
       </c>
       <c r="I12" s="1">
-        <f>(表格1[[#This Row],[damage per hit]] * 表格1[[#This Row],[rate of fire]] * 表格1[[#This Row],[expected damage mutifactor]])</f>
-        <v>300</v>
+        <f>(表格1[[#This Row],[damage per hit]]*表格1[[#This Row],[rate of fire]]*表格1[[#This Row],[expected damage mutifactor]])</f>
+        <v>92.307692307692292</v>
       </c>
       <c r="J12" s="1">
-        <f>(表格1[[#This Row],[single target DPS]] * 表格1[[#This Row],[max targets]])</f>
-        <v>1500</v>
-      </c>
-      <c r="N12" s="4">
+        <f>(表格1[[#This Row],[single target DPS]]*表格1[[#This Row],[max targets]])</f>
+        <v>461.53846153846143</v>
+      </c>
+      <c r="N12" s="3">
         <v>10</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>36</v>
+      <c r="O12" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="P12">
         <v>29</v>
@@ -1147,7 +1397,7 @@
         <v>7</v>
       </c>
       <c r="R12">
-        <f>(表格2[[#This Row],[single target HP]] * 表格2[[#This Row],[spawns per second]])</f>
+        <f>(表格2[[#This Row],[single target HP]]*表格2[[#This Row],[spawns per second]])</f>
         <v>203</v>
       </c>
       <c r="T12">
@@ -1158,12 +1408,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13">
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1172,51 +1422,51 @@
         <v>10</v>
       </c>
       <c r="E13" s="1">
-        <v>0.7</v>
+        <v>0.59999999999999998</v>
       </c>
       <c r="F13" s="1">
         <v>1</v>
       </c>
       <c r="G13" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H13" s="1">
-        <f>(1 / 表格1[[#This Row],[reload time]])</f>
-        <v>1.4285714285714286</v>
+        <f>(1/表格1[[#This Row],[reload time]])</f>
+        <v>1.6666666666666667</v>
       </c>
       <c r="I13" s="1">
-        <f>(表格1[[#This Row],[damage per hit]] * 表格1[[#This Row],[rate of fire]] * 表格1[[#This Row],[expected damage mutifactor]])</f>
-        <v>14.285714285714286</v>
+        <f>(表格1[[#This Row],[damage per hit]]*表格1[[#This Row],[rate of fire]]*表格1[[#This Row],[expected damage mutifactor]])</f>
+        <v>16.666666666666668</v>
       </c>
       <c r="J13" s="1">
-        <f>(表格1[[#This Row],[single target DPS]] * 表格1[[#This Row],[max targets]])</f>
-        <v>142.85714285714286</v>
-      </c>
-      <c r="N13" s="4"/>
+        <f>(表格1[[#This Row],[single target DPS]]*表格1[[#This Row],[max targets]])</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="N13" s="3"/>
       <c r="R13">
-        <f>(表格2[[#This Row],[single target HP]] * 表格2[[#This Row],[spawns per second]])</f>
+        <f>(表格2[[#This Row],[single target HP]]*表格2[[#This Row],[spawns per second]])</f>
         <v>0</v>
       </c>
       <c r="T13">
-        <f>(T12 * U13)</f>
+        <f t="shared" ref="T13:T14" si="1">(T12 * U13)</f>
         <v>201.55391999999995</v>
       </c>
       <c r="U13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14">
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
       <c r="D14" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E14" s="1">
         <v>0.5</v>
@@ -1225,70 +1475,70 @@
         <v>1</v>
       </c>
       <c r="G14" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H14" s="1">
-        <f>(1 / 表格1[[#This Row],[reload time]])</f>
+        <f>(1/表格1[[#This Row],[reload time]])</f>
         <v>2</v>
       </c>
       <c r="I14" s="1">
-        <f>(表格1[[#This Row],[damage per hit]] * 表格1[[#This Row],[rate of fire]] * 表格1[[#This Row],[expected damage mutifactor]])</f>
-        <v>30</v>
+        <f>(表格1[[#This Row],[damage per hit]]*表格1[[#This Row],[rate of fire]]*表格1[[#This Row],[expected damage mutifactor]])</f>
+        <v>28</v>
       </c>
       <c r="J14" s="1">
-        <f>(表格1[[#This Row],[single target DPS]] * 表格1[[#This Row],[max targets]])</f>
-        <v>300</v>
-      </c>
-      <c r="N14" s="4"/>
+        <f>(表格1[[#This Row],[single target DPS]]*表格1[[#This Row],[max targets]])</f>
+        <v>56</v>
+      </c>
+      <c r="N14" s="3"/>
       <c r="R14">
-        <f>(表格2[[#This Row],[single target HP]] * 表格2[[#This Row],[spawns per second]])</f>
+        <f>(表格2[[#This Row],[single target HP]]*表格2[[#This Row],[spawns per second]])</f>
         <v>0</v>
       </c>
       <c r="T14">
-        <f>(T13 * U14)</f>
+        <f t="shared" si="1"/>
         <v>241.86470399999993</v>
       </c>
       <c r="U14">
         <v>1.2</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15">
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C15">
         <v>3</v>
       </c>
       <c r="D15" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E15" s="1">
-        <v>0.4</v>
+        <v>0.45000000000000001</v>
       </c>
       <c r="F15" s="1">
         <v>1</v>
       </c>
       <c r="G15" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H15" s="1">
-        <f>(1 / 表格1[[#This Row],[reload time]])</f>
-        <v>2.5</v>
+        <f>(1/表格1[[#This Row],[reload time]])</f>
+        <v>2.2222222222222223</v>
       </c>
       <c r="I15" s="1">
-        <f>(表格1[[#This Row],[damage per hit]] * 表格1[[#This Row],[rate of fire]] * 表格1[[#This Row],[expected damage mutifactor]])</f>
-        <v>50</v>
+        <f>(表格1[[#This Row],[damage per hit]]*表格1[[#This Row],[rate of fire]]*表格1[[#This Row],[expected damage mutifactor]])</f>
+        <v>35.555555555555557</v>
       </c>
       <c r="J15" s="1">
-        <f>(表格1[[#This Row],[single target DPS]] * 表格1[[#This Row],[max targets]])</f>
-        <v>500</v>
-      </c>
-      <c r="N15" s="4"/>
+        <f>(表格1[[#This Row],[single target DPS]]*表格1[[#This Row],[max targets]])</f>
+        <v>106.66666666666667</v>
+      </c>
+      <c r="N15" s="3"/>
       <c r="R15">
-        <f>(表格2[[#This Row],[single target HP]] * 表格2[[#This Row],[spawns per second]])</f>
+        <f>(表格2[[#This Row],[single target HP]]*表格2[[#This Row],[spawns per second]])</f>
         <v>0</v>
       </c>
       <c r="T15">
@@ -1299,43 +1549,43 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16">
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C16">
         <v>4</v>
       </c>
       <c r="D16" s="1">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E16" s="1">
-        <v>0.4</v>
+        <v>0.29999999999999999</v>
       </c>
       <c r="F16" s="1">
         <v>1</v>
       </c>
       <c r="G16" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H16" s="1">
-        <f>(1 / 表格1[[#This Row],[reload time]])</f>
-        <v>2.5</v>
+        <f>(1/表格1[[#This Row],[reload time]])</f>
+        <v>3.3333333333333335</v>
       </c>
       <c r="I16" s="1">
-        <f>(表格1[[#This Row],[damage per hit]] * 表格1[[#This Row],[rate of fire]] * 表格1[[#This Row],[expected damage mutifactor]])</f>
-        <v>75</v>
+        <f>(表格1[[#This Row],[damage per hit]]*表格1[[#This Row],[rate of fire]]*表格1[[#This Row],[expected damage mutifactor]])</f>
+        <v>60</v>
       </c>
       <c r="J16" s="1">
-        <f>(表格1[[#This Row],[single target DPS]] * 表格1[[#This Row],[max targets]])</f>
-        <v>750</v>
-      </c>
-      <c r="N16" s="4"/>
+        <f>(表格1[[#This Row],[single target DPS]]*表格1[[#This Row],[max targets]])</f>
+        <v>180</v>
+      </c>
+      <c r="N16" s="3"/>
       <c r="R16">
-        <f>(表格2[[#This Row],[single target HP]] * 表格2[[#This Row],[spawns per second]])</f>
+        <f>(表格2[[#This Row],[single target HP]]*表格2[[#This Row],[spawns per second]])</f>
         <v>0</v>
       </c>
       <c r="T16">
@@ -1346,43 +1596,43 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17">
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C17">
         <v>5</v>
       </c>
       <c r="D17" s="1">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="E17" s="1">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="F17" s="1">
         <v>1</v>
       </c>
       <c r="G17" s="2">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="H17" s="1">
-        <f>(1 / 表格1[[#This Row],[reload time]])</f>
-        <v>2.5</v>
+        <f>(1/表格1[[#This Row],[reload time]])</f>
+        <v>4</v>
       </c>
       <c r="I17" s="1">
-        <f>(表格1[[#This Row],[damage per hit]] * 表格1[[#This Row],[rate of fire]] * 表格1[[#This Row],[expected damage mutifactor]])</f>
-        <v>100</v>
+        <f>(表格1[[#This Row],[damage per hit]]*表格1[[#This Row],[rate of fire]]*表格1[[#This Row],[expected damage mutifactor]])</f>
+        <v>88</v>
       </c>
       <c r="J17" s="1">
-        <f>(表格1[[#This Row],[single target DPS]] * 表格1[[#This Row],[max targets]])</f>
-        <v>2000</v>
-      </c>
-      <c r="N17" s="4"/>
+        <f>(表格1[[#This Row],[single target DPS]]*表格1[[#This Row],[max targets]])</f>
+        <v>352</v>
+      </c>
+      <c r="N17" s="3"/>
       <c r="R17">
-        <f>(表格2[[#This Row],[single target HP]] * 表格2[[#This Row],[spawns per second]])</f>
+        <f>(表格2[[#This Row],[single target HP]]*表格2[[#This Row],[spawns per second]])</f>
         <v>0</v>
       </c>
       <c r="T17">
@@ -1393,18 +1643,18 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18">
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E18" s="1">
         <v>2</v>
@@ -1416,20 +1666,20 @@
         <v>3</v>
       </c>
       <c r="H18" s="1">
-        <f>(1 / 表格1[[#This Row],[reload time]])</f>
+        <f>(1/表格1[[#This Row],[reload time]])</f>
         <v>0.5</v>
       </c>
       <c r="I18" s="1">
-        <f>(表格1[[#This Row],[damage per hit]] * 表格1[[#This Row],[rate of fire]] * 表格1[[#This Row],[expected damage mutifactor]])</f>
-        <v>5</v>
+        <f>(表格1[[#This Row],[damage per hit]]*表格1[[#This Row],[rate of fire]]*表格1[[#This Row],[expected damage mutifactor]])</f>
+        <v>10</v>
       </c>
       <c r="J18" s="1">
-        <f>(表格1[[#This Row],[single target DPS]] * 表格1[[#This Row],[max targets]])</f>
-        <v>15</v>
-      </c>
-      <c r="N18" s="4"/>
+        <f>(表格1[[#This Row],[single target DPS]]*表格1[[#This Row],[max targets]])</f>
+        <v>30</v>
+      </c>
+      <c r="N18" s="3"/>
       <c r="R18">
-        <f>(表格2[[#This Row],[single target HP]] * 表格2[[#This Row],[spawns per second]])</f>
+        <f>(表格2[[#This Row],[single target HP]]*表格2[[#This Row],[spawns per second]])</f>
         <v>0</v>
       </c>
       <c r="T18">
@@ -1440,18 +1690,18 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19">
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
       <c r="D19" s="1">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E19" s="1">
         <v>1.8</v>
@@ -1463,20 +1713,20 @@
         <v>5</v>
       </c>
       <c r="H19" s="1">
-        <f>(1 / 表格1[[#This Row],[reload time]])</f>
+        <f>(1/表格1[[#This Row],[reload time]])</f>
         <v>0.55555555555555558</v>
       </c>
       <c r="I19" s="1">
-        <f>(表格1[[#This Row],[damage per hit]] * 表格1[[#This Row],[rate of fire]] * 表格1[[#This Row],[expected damage mutifactor]])</f>
-        <v>8.3333333333333339</v>
+        <f>(表格1[[#This Row],[damage per hit]]*表格1[[#This Row],[rate of fire]]*表格1[[#This Row],[expected damage mutifactor]])</f>
+        <v>12.222222222222223</v>
       </c>
       <c r="J19" s="1">
-        <f>(表格1[[#This Row],[single target DPS]] * 表格1[[#This Row],[max targets]])</f>
-        <v>41.666666666666671</v>
-      </c>
-      <c r="N19" s="4"/>
+        <f>(表格1[[#This Row],[single target DPS]]*表格1[[#This Row],[max targets]])</f>
+        <v>61.111111111111114</v>
+      </c>
+      <c r="N19" s="3"/>
       <c r="R19">
-        <f>(表格2[[#This Row],[single target HP]] * 表格2[[#This Row],[spawns per second]])</f>
+        <f>(表格2[[#This Row],[single target HP]]*表格2[[#This Row],[spawns per second]])</f>
         <v>0</v>
       </c>
       <c r="T19">
@@ -1487,21 +1737,21 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20">
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C20">
         <v>3</v>
       </c>
       <c r="D20" s="1">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E20" s="1">
-        <v>1.8</v>
+        <v>1.6000000000000001</v>
       </c>
       <c r="F20" s="1">
         <v>1</v>
@@ -1510,20 +1760,20 @@
         <v>5</v>
       </c>
       <c r="H20" s="1">
-        <f>(1 / 表格1[[#This Row],[reload time]])</f>
-        <v>0.55555555555555558</v>
+        <f>(1/表格1[[#This Row],[reload time]])</f>
+        <v>0.625</v>
       </c>
       <c r="I20" s="1">
-        <f>(表格1[[#This Row],[damage per hit]] * 表格1[[#This Row],[rate of fire]] * 表格1[[#This Row],[expected damage mutifactor]])</f>
-        <v>11.111111111111111</v>
+        <f>(表格1[[#This Row],[damage per hit]]*表格1[[#This Row],[rate of fire]]*表格1[[#This Row],[expected damage mutifactor]])</f>
+        <v>15</v>
       </c>
       <c r="J20" s="1">
-        <f>(表格1[[#This Row],[single target DPS]] * 表格1[[#This Row],[max targets]])</f>
-        <v>55.555555555555557</v>
-      </c>
-      <c r="N20" s="4"/>
+        <f>(表格1[[#This Row],[single target DPS]]*表格1[[#This Row],[max targets]])</f>
+        <v>75</v>
+      </c>
+      <c r="N20" s="3"/>
       <c r="R20">
-        <f>(表格2[[#This Row],[single target HP]] * 表格2[[#This Row],[spawns per second]])</f>
+        <f>(表格2[[#This Row],[single target HP]]*表格2[[#This Row],[spawns per second]])</f>
         <v>0</v>
       </c>
       <c r="T20">
@@ -1534,21 +1784,21 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21">
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C21">
         <v>4</v>
       </c>
       <c r="D21" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E21" s="1">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="F21" s="1">
         <v>1</v>
@@ -1557,20 +1807,20 @@
         <v>7</v>
       </c>
       <c r="H21" s="1">
-        <f>(1 / 表格1[[#This Row],[reload time]])</f>
-        <v>0.7142857142857143</v>
+        <f>(1/表格1[[#This Row],[reload time]])</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I21" s="1">
-        <f>(表格1[[#This Row],[damage per hit]] * 表格1[[#This Row],[rate of fire]] * 表格1[[#This Row],[expected damage mutifactor]])</f>
-        <v>21.428571428571431</v>
+        <f>(表格1[[#This Row],[damage per hit]]*表格1[[#This Row],[rate of fire]]*表格1[[#This Row],[expected damage mutifactor]])</f>
+        <v>18.666666666666664</v>
       </c>
       <c r="J21" s="1">
-        <f>(表格1[[#This Row],[single target DPS]] * 表格1[[#This Row],[max targets]])</f>
-        <v>150</v>
-      </c>
-      <c r="N21" s="4"/>
+        <f>(表格1[[#This Row],[single target DPS]]*表格1[[#This Row],[max targets]])</f>
+        <v>130.66666666666666</v>
+      </c>
+      <c r="N21" s="3"/>
       <c r="R21">
-        <f>(表格2[[#This Row],[single target HP]] * 表格2[[#This Row],[spawns per second]])</f>
+        <f>(表格2[[#This Row],[single target HP]]*表格2[[#This Row],[spawns per second]])</f>
         <v>0</v>
       </c>
       <c r="T21">
@@ -1581,43 +1831,43 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22">
       <c r="A22">
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C22">
         <v>5</v>
       </c>
       <c r="D22" s="1">
+        <v>30</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="F22" s="1">
+        <v>2</v>
+      </c>
+      <c r="G22" s="2">
+        <v>14</v>
+      </c>
+      <c r="H22" s="1">
+        <f>(1/表格1[[#This Row],[reload time]])</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I22" s="1">
+        <f>(表格1[[#This Row],[damage per hit]]*表格1[[#This Row],[rate of fire]]*表格1[[#This Row],[expected damage mutifactor]])</f>
         <v>40</v>
       </c>
-      <c r="E22" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="F22" s="1">
-        <v>2</v>
-      </c>
-      <c r="G22" s="2">
-        <v>9</v>
-      </c>
-      <c r="H22" s="1">
-        <f>(1 / 表格1[[#This Row],[reload time]])</f>
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="I22" s="1">
-        <f>(表格1[[#This Row],[damage per hit]] * 表格1[[#This Row],[rate of fire]] * 表格1[[#This Row],[expected damage mutifactor]])</f>
-        <v>57.142857142857146</v>
-      </c>
       <c r="J22" s="1">
-        <f>(表格1[[#This Row],[single target DPS]] * 表格1[[#This Row],[max targets]])</f>
-        <v>514.28571428571433</v>
-      </c>
-      <c r="N22" s="4"/>
+        <f>(表格1[[#This Row],[single target DPS]]*表格1[[#This Row],[max targets]])</f>
+        <v>560</v>
+      </c>
+      <c r="N22" s="3"/>
       <c r="R22">
-        <f>(表格2[[#This Row],[single target HP]] * 表格2[[#This Row],[spawns per second]])</f>
+        <f>(表格2[[#This Row],[single target HP]]*表格2[[#This Row],[spawns per second]])</f>
         <v>0</v>
       </c>
       <c r="T22">
@@ -1628,18 +1878,18 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23">
       <c r="A23">
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
@@ -1651,20 +1901,20 @@
         <v>1</v>
       </c>
       <c r="H23" s="1">
-        <f>(1 / 表格1[[#This Row],[reload time]])</f>
+        <f>(1/表格1[[#This Row],[reload time]])</f>
         <v>1</v>
       </c>
       <c r="I23" s="1">
-        <f>(表格1[[#This Row],[damage per hit]] * 表格1[[#This Row],[rate of fire]] * 表格1[[#This Row],[expected damage mutifactor]])</f>
-        <v>10</v>
+        <f>(表格1[[#This Row],[damage per hit]]*表格1[[#This Row],[rate of fire]]*表格1[[#This Row],[expected damage mutifactor]])</f>
+        <v>20</v>
       </c>
       <c r="J23" s="1">
-        <f>(表格1[[#This Row],[single target DPS]] * 表格1[[#This Row],[max targets]])</f>
-        <v>10</v>
-      </c>
-      <c r="N23" s="4"/>
+        <f>(表格1[[#This Row],[single target DPS]]*表格1[[#This Row],[max targets]])</f>
+        <v>20</v>
+      </c>
+      <c r="N23" s="3"/>
       <c r="R23">
-        <f>(表格2[[#This Row],[single target HP]] * 表格2[[#This Row],[spawns per second]])</f>
+        <f>(表格2[[#This Row],[single target HP]]*表格2[[#This Row],[spawns per second]])</f>
         <v>0</v>
       </c>
       <c r="T23">
@@ -1675,18 +1925,18 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24">
       <c r="A24">
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C24">
         <v>2</v>
       </c>
       <c r="D24" s="1">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
@@ -1698,20 +1948,20 @@
         <v>1</v>
       </c>
       <c r="H24" s="1">
-        <f>(1 / 表格1[[#This Row],[reload time]])</f>
+        <f>(1/表格1[[#This Row],[reload time]])</f>
         <v>1</v>
       </c>
       <c r="I24" s="1">
-        <f>(表格1[[#This Row],[damage per hit]] * 表格1[[#This Row],[rate of fire]] * 表格1[[#This Row],[expected damage mutifactor]])</f>
-        <v>15</v>
+        <f>(表格1[[#This Row],[damage per hit]]*表格1[[#This Row],[rate of fire]]*表格1[[#This Row],[expected damage mutifactor]])</f>
+        <v>35</v>
       </c>
       <c r="J24" s="1">
-        <f>(表格1[[#This Row],[single target DPS]] * 表格1[[#This Row],[max targets]])</f>
-        <v>15</v>
-      </c>
-      <c r="N24" s="4"/>
+        <f>(表格1[[#This Row],[single target DPS]]*表格1[[#This Row],[max targets]])</f>
+        <v>35</v>
+      </c>
+      <c r="N24" s="3"/>
       <c r="R24">
-        <f>(表格2[[#This Row],[single target HP]] * 表格2[[#This Row],[spawns per second]])</f>
+        <f>(表格2[[#This Row],[single target HP]]*表格2[[#This Row],[spawns per second]])</f>
         <v>0</v>
       </c>
       <c r="T24">
@@ -1722,18 +1972,18 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25">
       <c r="A25">
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C25">
         <v>3</v>
       </c>
       <c r="D25" s="1">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
@@ -1745,20 +1995,20 @@
         <v>1</v>
       </c>
       <c r="H25" s="1">
-        <f>(1 / 表格1[[#This Row],[reload time]])</f>
+        <f>(1/表格1[[#This Row],[reload time]])</f>
         <v>1</v>
       </c>
       <c r="I25" s="1">
-        <f>(表格1[[#This Row],[damage per hit]] * 表格1[[#This Row],[rate of fire]] * 表格1[[#This Row],[expected damage mutifactor]])</f>
-        <v>3</v>
+        <f>(表格1[[#This Row],[damage per hit]]*表格1[[#This Row],[rate of fire]]*表格1[[#This Row],[expected damage mutifactor]])</f>
+        <v>75</v>
       </c>
       <c r="J25" s="1">
-        <f>(表格1[[#This Row],[single target DPS]] * 表格1[[#This Row],[max targets]])</f>
-        <v>3</v>
-      </c>
-      <c r="N25" s="4"/>
+        <f>(表格1[[#This Row],[single target DPS]]*表格1[[#This Row],[max targets]])</f>
+        <v>75</v>
+      </c>
+      <c r="N25" s="3"/>
       <c r="R25">
-        <f>(表格2[[#This Row],[single target HP]] * 表格2[[#This Row],[spawns per second]])</f>
+        <f>(表格2[[#This Row],[single target HP]]*表格2[[#This Row],[spawns per second]])</f>
         <v>0</v>
       </c>
       <c r="T25">
@@ -1769,18 +2019,18 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26">
       <c r="A26">
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C26">
         <v>4</v>
       </c>
       <c r="D26" s="1">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="E26" s="1">
         <v>0.75</v>
@@ -1792,65 +2042,65 @@
         <v>1</v>
       </c>
       <c r="H26" s="1">
-        <f>(1 / 表格1[[#This Row],[reload time]])</f>
+        <f>(1/表格1[[#This Row],[reload time]])</f>
         <v>1.3333333333333333</v>
       </c>
       <c r="I26" s="1">
-        <f>(表格1[[#This Row],[damage per hit]] * 表格1[[#This Row],[rate of fire]] * 表格1[[#This Row],[expected damage mutifactor]])</f>
-        <v>26.666666666666664</v>
+        <f>(表格1[[#This Row],[damage per hit]]*表格1[[#This Row],[rate of fire]]*表格1[[#This Row],[expected damage mutifactor]])</f>
+        <v>106.66666666666666</v>
       </c>
       <c r="J26" s="1">
-        <f>(表格1[[#This Row],[single target DPS]] * 表格1[[#This Row],[max targets]])</f>
-        <v>26.666666666666664</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+        <f>(表格1[[#This Row],[single target DPS]]*表格1[[#This Row],[max targets]])</f>
+        <v>106.66666666666666</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27">
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C27">
         <v>5</v>
       </c>
       <c r="D27" s="1">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="E27" s="1">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F27" s="1">
         <v>1</v>
       </c>
       <c r="G27" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H27" s="1">
-        <f>(1 / 表格1[[#This Row],[reload time]])</f>
-        <v>1.3333333333333333</v>
+        <f>(1/表格1[[#This Row],[reload time]])</f>
+        <v>2</v>
       </c>
       <c r="I27" s="1">
-        <f>(表格1[[#This Row],[damage per hit]] * 表格1[[#This Row],[rate of fire]] * 表格1[[#This Row],[expected damage mutifactor]])</f>
-        <v>33.333333333333329</v>
+        <f>(表格1[[#This Row],[damage per hit]]*表格1[[#This Row],[rate of fire]]*表格1[[#This Row],[expected damage mutifactor]])</f>
+        <v>200</v>
       </c>
       <c r="J27" s="1">
-        <f>(表格1[[#This Row],[single target DPS]] * 表格1[[#This Row],[max targets]])</f>
-        <v>66.666666666666657</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+        <f>(表格1[[#This Row],[single target DPS]]*表格1[[#This Row],[max targets]])</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28">
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28" s="1">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E28" s="1">
         <v>2</v>
@@ -1859,33 +2109,33 @@
         <v>1</v>
       </c>
       <c r="G28" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H28" s="1">
-        <f>(1 / 表格1[[#This Row],[reload time]])</f>
+        <f>(1/表格1[[#This Row],[reload time]])</f>
         <v>0.5</v>
       </c>
       <c r="I28" s="1">
-        <f>(表格1[[#This Row],[damage per hit]] * 表格1[[#This Row],[rate of fire]] * 表格1[[#This Row],[expected damage mutifactor]])</f>
-        <v>2.5</v>
+        <f>(表格1[[#This Row],[damage per hit]]*表格1[[#This Row],[rate of fire]]*表格1[[#This Row],[expected damage mutifactor]])</f>
+        <v>12</v>
       </c>
       <c r="J28" s="1">
-        <f>(表格1[[#This Row],[single target DPS]] * 表格1[[#This Row],[max targets]])</f>
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+        <f>(表格1[[#This Row],[single target DPS]]*表格1[[#This Row],[max targets]])</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29">
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C29">
         <v>2</v>
       </c>
       <c r="D29" s="1">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="E29" s="1">
         <v>2</v>
@@ -1894,71 +2144,71 @@
         <v>1</v>
       </c>
       <c r="G29" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H29" s="1">
-        <f>(1 / 表格1[[#This Row],[reload time]])</f>
+        <f>(1/表格1[[#This Row],[reload time]])</f>
         <v>0.5</v>
       </c>
       <c r="I29" s="1">
-        <f>(表格1[[#This Row],[damage per hit]] * 表格1[[#This Row],[rate of fire]] * 表格1[[#This Row],[expected damage mutifactor]])</f>
-        <v>3.5</v>
+        <f>(表格1[[#This Row],[damage per hit]]*表格1[[#This Row],[rate of fire]]*表格1[[#This Row],[expected damage mutifactor]])</f>
+        <v>13.5</v>
       </c>
       <c r="J29" s="1">
-        <f>(表格1[[#This Row],[single target DPS]] * 表格1[[#This Row],[max targets]])</f>
-        <v>24.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+        <f>(表格1[[#This Row],[single target DPS]]*表格1[[#This Row],[max targets]])</f>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30">
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C30">
         <v>3</v>
       </c>
       <c r="D30" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E30" s="1">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="F30" s="1">
         <v>1</v>
       </c>
       <c r="G30" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H30" s="1">
-        <f>(1 / 表格1[[#This Row],[reload time]])</f>
-        <v>0.5</v>
+        <f>(1/表格1[[#This Row],[reload time]])</f>
+        <v>0.55555555555555558</v>
       </c>
       <c r="I30" s="1">
-        <f>(表格1[[#This Row],[damage per hit]] * 表格1[[#This Row],[rate of fire]] * 表格1[[#This Row],[expected damage mutifactor]])</f>
-        <v>5</v>
+        <f>(表格1[[#This Row],[damage per hit]]*表格1[[#This Row],[rate of fire]]*表格1[[#This Row],[expected damage mutifactor]])</f>
+        <v>16.666666666666668</v>
       </c>
       <c r="J30" s="1">
-        <f>(表格1[[#This Row],[single target DPS]] * 表格1[[#This Row],[max targets]])</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+        <f>(表格1[[#This Row],[single target DPS]]*表格1[[#This Row],[max targets]])</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31">
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C31">
         <v>4</v>
       </c>
       <c r="D31" s="1">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E31" s="1">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="F31" s="1">
         <v>1</v>
@@ -1967,30 +2217,30 @@
         <v>15</v>
       </c>
       <c r="H31" s="1">
-        <f>(1 / 表格1[[#This Row],[reload time]])</f>
-        <v>0.5</v>
+        <f>(1/表格1[[#This Row],[reload time]])</f>
+        <v>0.55555555555555558</v>
       </c>
       <c r="I31" s="1">
-        <f>(表格1[[#This Row],[damage per hit]] * 表格1[[#This Row],[rate of fire]] * 表格1[[#This Row],[expected damage mutifactor]])</f>
-        <v>7.5</v>
+        <f>(表格1[[#This Row],[damage per hit]]*表格1[[#This Row],[rate of fire]]*表格1[[#This Row],[expected damage mutifactor]])</f>
+        <v>22.222222222222221</v>
       </c>
       <c r="J31" s="1">
-        <f>(表格1[[#This Row],[single target DPS]] * 表格1[[#This Row],[max targets]])</f>
-        <v>112.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+        <f>(表格1[[#This Row],[single target DPS]]*表格1[[#This Row],[max targets]])</f>
+        <v>333.33333333333331</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32">
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C32">
         <v>5</v>
       </c>
       <c r="D32" s="1">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E32" s="1">
         <v>1.5</v>
@@ -1999,36 +2249,36 @@
         <v>1</v>
       </c>
       <c r="G32" s="2">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H32" s="1">
-        <f>(1 / 表格1[[#This Row],[reload time]])</f>
+        <f>(1/表格1[[#This Row],[reload time]])</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="I32" s="1">
-        <f>(表格1[[#This Row],[damage per hit]] * 表格1[[#This Row],[rate of fire]] * 表格1[[#This Row],[expected damage mutifactor]])</f>
-        <v>16.666666666666664</v>
+        <f>(表格1[[#This Row],[damage per hit]]*表格1[[#This Row],[rate of fire]]*表格1[[#This Row],[expected damage mutifactor]])</f>
+        <v>33.333333333333329</v>
       </c>
       <c r="J32" s="1">
-        <f>(表格1[[#This Row],[single target DPS]] * 表格1[[#This Row],[max targets]])</f>
-        <v>416.66666666666663</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+        <f>(表格1[[#This Row],[single target DPS]]*表格1[[#This Row],[max targets]])</f>
+        <v>666.66666666666652</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33">
         <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E33" s="1">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="F33" s="1">
         <v>1</v>
@@ -2037,33 +2287,33 @@
         <v>5</v>
       </c>
       <c r="H33" s="1">
-        <f>(1 / 表格1[[#This Row],[reload time]])</f>
-        <v>0.66666666666666663</v>
+        <f>(1/表格1[[#This Row],[reload time]])</f>
+        <v>0.5</v>
       </c>
       <c r="I33" s="1">
-        <f>(表格1[[#This Row],[damage per hit]] * 表格1[[#This Row],[rate of fire]] * 表格1[[#This Row],[expected damage mutifactor]])</f>
-        <v>3.333333333333333</v>
+        <f>(表格1[[#This Row],[damage per hit]]*表格1[[#This Row],[rate of fire]]*表格1[[#This Row],[expected damage mutifactor]])</f>
+        <v>7.5</v>
       </c>
       <c r="J33" s="1">
-        <f>(表格1[[#This Row],[single target DPS]] * 表格1[[#This Row],[max targets]])</f>
-        <v>16.666666666666664</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+        <f>(表格1[[#This Row],[single target DPS]]*表格1[[#This Row],[max targets]])</f>
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34">
         <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C34">
         <v>2</v>
       </c>
       <c r="D34" s="1">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E34" s="1">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="F34" s="1">
         <v>2</v>
@@ -2072,33 +2322,33 @@
         <v>5</v>
       </c>
       <c r="H34" s="1">
-        <f>(1 / 表格1[[#This Row],[reload time]])</f>
-        <v>0.55555555555555558</v>
+        <f>(1/表格1[[#This Row],[reload time]])</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I34" s="1">
-        <f>(表格1[[#This Row],[damage per hit]] * 表格1[[#This Row],[rate of fire]] * 表格1[[#This Row],[expected damage mutifactor]])</f>
-        <v>7.7777777777777786</v>
+        <f>(表格1[[#This Row],[damage per hit]]*表格1[[#This Row],[rate of fire]]*表格1[[#This Row],[expected damage mutifactor]])</f>
+        <v>24</v>
       </c>
       <c r="J34" s="1">
-        <f>(表格1[[#This Row],[single target DPS]] * 表格1[[#This Row],[max targets]])</f>
-        <v>38.888888888888893</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+        <f>(表格1[[#This Row],[single target DPS]]*表格1[[#This Row],[max targets]])</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35">
         <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C35">
         <v>3</v>
       </c>
       <c r="D35" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E35" s="1">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F35" s="1">
         <v>3</v>
@@ -2107,33 +2357,33 @@
         <v>5</v>
       </c>
       <c r="H35" s="1">
-        <f>(1 / 表格1[[#This Row],[reload time]])</f>
-        <v>0.5</v>
+        <f>(1/表格1[[#This Row],[reload time]])</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I35" s="1">
-        <f>(表格1[[#This Row],[damage per hit]] * 表格1[[#This Row],[rate of fire]] * 表格1[[#This Row],[expected damage mutifactor]])</f>
-        <v>15</v>
+        <f>(表格1[[#This Row],[damage per hit]]*表格1[[#This Row],[rate of fire]]*表格1[[#This Row],[expected damage mutifactor]])</f>
+        <v>40</v>
       </c>
       <c r="J35" s="1">
-        <f>(表格1[[#This Row],[single target DPS]] * 表格1[[#This Row],[max targets]])</f>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+        <f>(表格1[[#This Row],[single target DPS]]*表格1[[#This Row],[max targets]])</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36">
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C36">
         <v>4</v>
       </c>
       <c r="D36" s="1">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E36" s="1">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="F36" s="1">
         <v>3</v>
@@ -2142,33 +2392,33 @@
         <v>5</v>
       </c>
       <c r="H36" s="1">
-        <f>(1 / 表格1[[#This Row],[reload time]])</f>
-        <v>0.33333333333333331</v>
+        <f>(1/表格1[[#This Row],[reload time]])</f>
+        <v>0.83333333333333337</v>
       </c>
       <c r="I36" s="1">
-        <f>(表格1[[#This Row],[damage per hit]] * 表格1[[#This Row],[rate of fire]] * 表格1[[#This Row],[expected damage mutifactor]])</f>
-        <v>15</v>
+        <f>(表格1[[#This Row],[damage per hit]]*表格1[[#This Row],[rate of fire]]*表格1[[#This Row],[expected damage mutifactor]])</f>
+        <v>62.500000000000007</v>
       </c>
       <c r="J36" s="1">
-        <f>(表格1[[#This Row],[single target DPS]] * 表格1[[#This Row],[max targets]])</f>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+        <f>(表格1[[#This Row],[single target DPS]]*表格1[[#This Row],[max targets]])</f>
+        <v>312.50000000000006</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37">
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C37">
         <v>5</v>
       </c>
       <c r="D37" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E37" s="1">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="F37" s="1">
         <v>4</v>
@@ -2177,30 +2427,30 @@
         <v>5</v>
       </c>
       <c r="H37" s="1">
-        <f>(1 / 表格1[[#This Row],[reload time]])</f>
-        <v>0.33333333333333331</v>
+        <f>(1/表格1[[#This Row],[reload time]])</f>
+        <v>0.83333333333333337</v>
       </c>
       <c r="I37" s="1">
-        <f>(表格1[[#This Row],[damage per hit]] * 表格1[[#This Row],[rate of fire]] * 表格1[[#This Row],[expected damage mutifactor]])</f>
-        <v>33.333333333333329</v>
+        <f>(表格1[[#This Row],[damage per hit]]*表格1[[#This Row],[rate of fire]]*表格1[[#This Row],[expected damage mutifactor]])</f>
+        <v>90</v>
       </c>
       <c r="J37" s="1">
-        <f>(表格1[[#This Row],[single target DPS]] * 表格1[[#This Row],[max targets]])</f>
-        <v>166.66666666666663</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+        <f>(表格1[[#This Row],[single target DPS]]*表格1[[#This Row],[max targets]])</f>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38">
         <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38" s="1">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
@@ -2212,30 +2462,30 @@
         <v>2</v>
       </c>
       <c r="H38" s="1">
-        <f>(1 / 表格1[[#This Row],[reload time]])</f>
+        <f>(1/表格1[[#This Row],[reload time]])</f>
         <v>1</v>
       </c>
       <c r="I38" s="1">
-        <f>(表格1[[#This Row],[damage per hit]] * 表格1[[#This Row],[rate of fire]] * 表格1[[#This Row],[expected damage mutifactor]])</f>
-        <v>11</v>
+        <f>(表格1[[#This Row],[damage per hit]]*表格1[[#This Row],[rate of fire]]*表格1[[#This Row],[expected damage mutifactor]])</f>
+        <v>25</v>
       </c>
       <c r="J38" s="1">
-        <f>(表格1[[#This Row],[single target DPS]] * 表格1[[#This Row],[max targets]])</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+        <f>(表格1[[#This Row],[single target DPS]]*表格1[[#This Row],[max targets]])</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39">
         <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C39">
         <v>2</v>
       </c>
       <c r="D39" s="1">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="E39" s="1">
         <v>1</v>
@@ -2247,30 +2497,30 @@
         <v>2</v>
       </c>
       <c r="H39" s="1">
-        <f>(1 / 表格1[[#This Row],[reload time]])</f>
+        <f>(1/表格1[[#This Row],[reload time]])</f>
         <v>1</v>
       </c>
       <c r="I39" s="1">
-        <f>(表格1[[#This Row],[damage per hit]] * 表格1[[#This Row],[rate of fire]] * 表格1[[#This Row],[expected damage mutifactor]])</f>
-        <v>11</v>
+        <f>(表格1[[#This Row],[damage per hit]]*表格1[[#This Row],[rate of fire]]*表格1[[#This Row],[expected damage mutifactor]])</f>
+        <v>35</v>
       </c>
       <c r="J39" s="1">
-        <f>(表格1[[#This Row],[single target DPS]] * 表格1[[#This Row],[max targets]])</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+        <f>(表格1[[#This Row],[single target DPS]]*表格1[[#This Row],[max targets]])</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40">
         <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C40">
         <v>3</v>
       </c>
       <c r="D40" s="1">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="E40" s="1">
         <v>1</v>
@@ -2282,30 +2532,30 @@
         <v>2</v>
       </c>
       <c r="H40" s="1">
-        <f>(1 / 表格1[[#This Row],[reload time]])</f>
+        <f>(1/表格1[[#This Row],[reload time]])</f>
         <v>1</v>
       </c>
       <c r="I40" s="1">
-        <f>(表格1[[#This Row],[damage per hit]] * 表格1[[#This Row],[rate of fire]] * 表格1[[#This Row],[expected damage mutifactor]])</f>
-        <v>11</v>
+        <f>(表格1[[#This Row],[damage per hit]]*表格1[[#This Row],[rate of fire]]*表格1[[#This Row],[expected damage mutifactor]])</f>
+        <v>50</v>
       </c>
       <c r="J40" s="1">
-        <f>(表格1[[#This Row],[single target DPS]] * 表格1[[#This Row],[max targets]])</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+        <f>(表格1[[#This Row],[single target DPS]]*表格1[[#This Row],[max targets]])</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41">
         <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C41">
         <v>4</v>
       </c>
       <c r="D41" s="1">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="E41" s="1">
         <v>0.75</v>
@@ -2317,30 +2567,30 @@
         <v>2</v>
       </c>
       <c r="H41" s="1">
-        <f>(1 / 表格1[[#This Row],[reload time]])</f>
+        <f>(1/表格1[[#This Row],[reload time]])</f>
         <v>1.3333333333333333</v>
       </c>
       <c r="I41" s="1">
-        <f>(表格1[[#This Row],[damage per hit]] * 表格1[[#This Row],[rate of fire]] * 表格1[[#This Row],[expected damage mutifactor]])</f>
-        <v>16</v>
+        <f>(表格1[[#This Row],[damage per hit]]*表格1[[#This Row],[rate of fire]]*表格1[[#This Row],[expected damage mutifactor]])</f>
+        <v>93.333333333333329</v>
       </c>
       <c r="J41" s="1">
-        <f>(表格1[[#This Row],[single target DPS]] * 表格1[[#This Row],[max targets]])</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+        <f>(表格1[[#This Row],[single target DPS]]*表格1[[#This Row],[max targets]])</f>
+        <v>186.66666666666666</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42">
         <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C42">
         <v>5</v>
       </c>
       <c r="D42" s="1">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="E42" s="1">
         <v>0.75</v>
@@ -2352,68 +2602,68 @@
         <v>2</v>
       </c>
       <c r="H42" s="1">
-        <f>(1 / 表格1[[#This Row],[reload time]])</f>
+        <f>(1/表格1[[#This Row],[reload time]])</f>
         <v>1.3333333333333333</v>
       </c>
       <c r="I42" s="1">
-        <f>(表格1[[#This Row],[damage per hit]] * 表格1[[#This Row],[rate of fire]] * 表格1[[#This Row],[expected damage mutifactor]])</f>
-        <v>16</v>
+        <f>(表格1[[#This Row],[damage per hit]]*表格1[[#This Row],[rate of fire]]*表格1[[#This Row],[expected damage mutifactor]])</f>
+        <v>146.66666666666666</v>
       </c>
       <c r="J42" s="1">
-        <f>(表格1[[#This Row],[single target DPS]] * 表格1[[#This Row],[max targets]])</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+        <f>(表格1[[#This Row],[single target DPS]]*表格1[[#This Row],[max targets]])</f>
+        <v>293.33333333333331</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43">
         <v>9</v>
       </c>
       <c r="B43" t="s">
+        <v>35</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43" s="1">
+        <v>36</v>
+      </c>
+      <c r="E43" s="1">
+        <v>2</v>
+      </c>
+      <c r="F43" s="1">
+        <v>1</v>
+      </c>
+      <c r="G43" s="2">
+        <v>1</v>
+      </c>
+      <c r="H43" s="1">
+        <f>(1/表格1[[#This Row],[reload time]])</f>
+        <v>0.5</v>
+      </c>
+      <c r="I43" s="1">
+        <f>(表格1[[#This Row],[damage per hit]]*表格1[[#This Row],[rate of fire]]*表格1[[#This Row],[expected damage mutifactor]])</f>
         <v>18</v>
       </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43" s="1">
-        <v>12</v>
-      </c>
-      <c r="E43" s="1">
-        <v>2</v>
-      </c>
-      <c r="F43" s="1">
-        <v>1</v>
-      </c>
-      <c r="G43" s="2">
-        <v>1</v>
-      </c>
-      <c r="H43" s="1">
-        <f>(1 / 表格1[[#This Row],[reload time]])</f>
-        <v>0.5</v>
-      </c>
-      <c r="I43" s="1">
-        <f>(表格1[[#This Row],[damage per hit]] * 表格1[[#This Row],[rate of fire]] * 表格1[[#This Row],[expected damage mutifactor]])</f>
-        <v>6</v>
-      </c>
       <c r="J43" s="1">
-        <f>(表格1[[#This Row],[single target DPS]] * 表格1[[#This Row],[max targets]])</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+        <f>(表格1[[#This Row],[single target DPS]]*表格1[[#This Row],[max targets]])</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44">
         <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>2</v>
       </c>
       <c r="D44" s="1">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="E44" s="1">
-        <v>2</v>
+        <v>1.6000000000000001</v>
       </c>
       <c r="F44" s="1">
         <v>1</v>
@@ -2422,33 +2672,33 @@
         <v>1</v>
       </c>
       <c r="H44" s="1">
-        <f>(1 / 表格1[[#This Row],[reload time]])</f>
-        <v>0.5</v>
+        <f>(1/表格1[[#This Row],[reload time]])</f>
+        <v>0.625</v>
       </c>
       <c r="I44" s="1">
-        <f>(表格1[[#This Row],[damage per hit]] * 表格1[[#This Row],[rate of fire]] * 表格1[[#This Row],[expected damage mutifactor]])</f>
-        <v>12</v>
+        <f>(表格1[[#This Row],[damage per hit]]*表格1[[#This Row],[rate of fire]]*表格1[[#This Row],[expected damage mutifactor]])</f>
+        <v>30</v>
       </c>
       <c r="J44" s="1">
-        <f>(表格1[[#This Row],[single target DPS]] * 表格1[[#This Row],[max targets]])</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+        <f>(表格1[[#This Row],[single target DPS]]*表格1[[#This Row],[max targets]])</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45">
         <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>3</v>
       </c>
       <c r="D45" s="1">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="E45" s="1">
-        <v>2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F45" s="1">
         <v>1</v>
@@ -2457,33 +2707,33 @@
         <v>1</v>
       </c>
       <c r="H45" s="1">
-        <f>(1 / 表格1[[#This Row],[reload time]])</f>
-        <v>0.5</v>
+        <f>(1/表格1[[#This Row],[reload time]])</f>
+        <v>0.90909090909090906</v>
       </c>
       <c r="I45" s="1">
-        <f>(表格1[[#This Row],[damage per hit]] * 表格1[[#This Row],[rate of fire]] * 表格1[[#This Row],[expected damage mutifactor]])</f>
-        <v>18</v>
+        <f>(表格1[[#This Row],[damage per hit]]*表格1[[#This Row],[rate of fire]]*表格1[[#This Row],[expected damage mutifactor]])</f>
+        <v>65.454545454545453</v>
       </c>
       <c r="J45" s="1">
-        <f>(表格1[[#This Row],[single target DPS]] * 表格1[[#This Row],[max targets]])</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+        <f>(表格1[[#This Row],[single target DPS]]*表格1[[#This Row],[max targets]])</f>
+        <v>65.454545454545453</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46">
         <v>9</v>
       </c>
       <c r="B46" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>4</v>
       </c>
       <c r="D46" s="1">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="E46" s="1">
-        <v>2</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="F46" s="1">
         <v>1</v>
@@ -2492,33 +2742,33 @@
         <v>1</v>
       </c>
       <c r="H46" s="1">
-        <f>(1 / 表格1[[#This Row],[reload time]])</f>
-        <v>0.5</v>
+        <f>(1/表格1[[#This Row],[reload time]])</f>
+        <v>1.25</v>
       </c>
       <c r="I46" s="1">
-        <f>(表格1[[#This Row],[damage per hit]] * 表格1[[#This Row],[rate of fire]] * 表格1[[#This Row],[expected damage mutifactor]])</f>
-        <v>24</v>
+        <f>(表格1[[#This Row],[damage per hit]]*表格1[[#This Row],[rate of fire]]*表格1[[#This Row],[expected damage mutifactor]])</f>
+        <v>105</v>
       </c>
       <c r="J46" s="1">
-        <f>(表格1[[#This Row],[single target DPS]] * 表格1[[#This Row],[max targets]])</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+        <f>(表格1[[#This Row],[single target DPS]]*表格1[[#This Row],[max targets]])</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47">
         <v>9</v>
       </c>
       <c r="B47" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>5</v>
       </c>
       <c r="D47" s="1">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="E47" s="1">
-        <v>2</v>
+        <v>0.59999999999999998</v>
       </c>
       <c r="F47" s="1">
         <v>1</v>
@@ -2527,226 +2777,210 @@
         <v>1</v>
       </c>
       <c r="H47" s="1">
-        <f>(1 / 表格1[[#This Row],[reload time]])</f>
-        <v>0.5</v>
+        <f>(1/表格1[[#This Row],[reload time]])</f>
+        <v>1.6666666666666667</v>
       </c>
       <c r="I47" s="1">
-        <f>(表格1[[#This Row],[damage per hit]] * 表格1[[#This Row],[rate of fire]] * 表格1[[#This Row],[expected damage mutifactor]])</f>
-        <v>30</v>
+        <f>(表格1[[#This Row],[damage per hit]]*表格1[[#This Row],[rate of fire]]*表格1[[#This Row],[expected damage mutifactor]])</f>
+        <v>160</v>
       </c>
       <c r="J47" s="1">
-        <f>(表格1[[#This Row],[single target DPS]] * 表格1[[#This Row],[max targets]])</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+        <f>(表格1[[#This Row],[single target DPS]]*表格1[[#This Row],[max targets]])</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48">
         <v>10</v>
       </c>
       <c r="B48" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
       <c r="D48" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E48" s="1">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="F48" s="1">
         <v>1</v>
       </c>
       <c r="G48" s="2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H48" s="1">
-        <f>(1 / 表格1[[#This Row],[reload time]])</f>
-        <v>10</v>
+        <f>(1/表格1[[#This Row],[reload time]])</f>
+        <v>1</v>
       </c>
       <c r="I48" s="1">
-        <f>(表格1[[#This Row],[damage per hit]] * 表格1[[#This Row],[rate of fire]] * 表格1[[#This Row],[expected damage mutifactor]])</f>
-        <v>10</v>
+        <f>(表格1[[#This Row],[damage per hit]]*表格1[[#This Row],[rate of fire]]*表格1[[#This Row],[expected damage mutifactor]])</f>
+        <v>20</v>
       </c>
       <c r="J48" s="1">
-        <f>(表格1[[#This Row],[single target DPS]] * 表格1[[#This Row],[max targets]])</f>
-        <v>110</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+        <f>(表格1[[#This Row],[single target DPS]]*表格1[[#This Row],[max targets]])</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49">
         <v>10</v>
       </c>
       <c r="B49" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C49">
         <v>2</v>
       </c>
       <c r="D49" s="1">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="E49" s="1">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="F49" s="1">
         <v>1</v>
       </c>
       <c r="G49" s="2">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="H49" s="1">
-        <f>(1 / 表格1[[#This Row],[reload time]])</f>
-        <v>10</v>
+        <f>(1/表格1[[#This Row],[reload time]])</f>
+        <v>1</v>
       </c>
       <c r="I49" s="1">
-        <f>(表格1[[#This Row],[damage per hit]] * 表格1[[#This Row],[rate of fire]] * 表格1[[#This Row],[expected damage mutifactor]])</f>
-        <v>10</v>
+        <f>(表格1[[#This Row],[damage per hit]]*表格1[[#This Row],[rate of fire]]*表格1[[#This Row],[expected damage mutifactor]])</f>
+        <v>40</v>
       </c>
       <c r="J49" s="1">
-        <f>(表格1[[#This Row],[single target DPS]] * 表格1[[#This Row],[max targets]])</f>
-        <v>220</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+        <f>(表格1[[#This Row],[single target DPS]]*表格1[[#This Row],[max targets]])</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50">
         <v>10</v>
       </c>
       <c r="B50" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C50">
         <v>3</v>
       </c>
       <c r="D50" s="1">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="E50" s="1">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="F50" s="1">
         <v>1</v>
       </c>
       <c r="G50" s="2">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="H50" s="1">
-        <f>(1 / 表格1[[#This Row],[reload time]])</f>
-        <v>10</v>
+        <f>(1/表格1[[#This Row],[reload time]])</f>
+        <v>1</v>
       </c>
       <c r="I50" s="1">
-        <f>(表格1[[#This Row],[damage per hit]] * 表格1[[#This Row],[rate of fire]] * 表格1[[#This Row],[expected damage mutifactor]])</f>
-        <v>10</v>
+        <f>(表格1[[#This Row],[damage per hit]]*表格1[[#This Row],[rate of fire]]*表格1[[#This Row],[expected damage mutifactor]])</f>
+        <v>70</v>
       </c>
       <c r="J50" s="1">
-        <f>(表格1[[#This Row],[single target DPS]] * 表格1[[#This Row],[max targets]])</f>
-        <v>330</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+        <f>(表格1[[#This Row],[single target DPS]]*表格1[[#This Row],[max targets]])</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51">
         <v>10</v>
       </c>
       <c r="B51" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C51">
         <v>4</v>
       </c>
       <c r="D51" s="1">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="E51" s="1">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="F51" s="1">
         <v>1</v>
       </c>
       <c r="G51" s="2">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="H51" s="1">
-        <f>(1 / 表格1[[#This Row],[reload time]])</f>
-        <v>1.4285714285714286</v>
+        <f>(1/表格1[[#This Row],[reload time]])</f>
+        <v>1.3333333333333333</v>
       </c>
       <c r="I51" s="1">
-        <f>(表格1[[#This Row],[damage per hit]] * 表格1[[#This Row],[rate of fire]] * 表格1[[#This Row],[expected damage mutifactor]])</f>
-        <v>2.8571428571428572</v>
+        <f>(表格1[[#This Row],[damage per hit]]*表格1[[#This Row],[rate of fire]]*表格1[[#This Row],[expected damage mutifactor]])</f>
+        <v>100</v>
       </c>
       <c r="J51" s="1">
-        <f>(表格1[[#This Row],[single target DPS]] * 表格1[[#This Row],[max targets]])</f>
-        <v>125.71428571428572</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+        <f>(表格1[[#This Row],[single target DPS]]*表格1[[#This Row],[max targets]])</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52">
         <v>10</v>
       </c>
       <c r="B52" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C52">
         <v>5</v>
       </c>
       <c r="D52" s="1">
-        <v>2</v>
+        <v>125</v>
       </c>
       <c r="E52" s="1">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="F52" s="1">
         <v>1</v>
       </c>
       <c r="G52" s="2">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="H52" s="1">
-        <f>(1 / 表格1[[#This Row],[reload time]])</f>
-        <v>1.4285714285714286</v>
+        <f>(1/表格1[[#This Row],[reload time]])</f>
+        <v>1.3333333333333333</v>
       </c>
       <c r="I52" s="1">
-        <f>(表格1[[#This Row],[damage per hit]] * 表格1[[#This Row],[rate of fire]] * 表格1[[#This Row],[expected damage mutifactor]])</f>
-        <v>2.8571428571428572</v>
+        <f>(表格1[[#This Row],[damage per hit]]*表格1[[#This Row],[rate of fire]]*表格1[[#This Row],[expected damage mutifactor]])</f>
+        <v>166.66666666666666</v>
       </c>
       <c r="J52" s="1">
-        <f>(表格1[[#This Row],[single target DPS]] * 表格1[[#This Row],[max targets]])</f>
-        <v>157.14285714285714</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+        <f>(表格1[[#This Row],[single target DPS]]*表格1[[#This Row],[max targets]])</f>
+        <v>166.66666666666666</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="G53" s="2"/>
-      <c r="H53" s="1" t="e">
-        <f>(1 / 表格1[[#This Row],[reload time]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I53" s="1" t="e">
-        <f>(表格1[[#This Row],[damage per hit]] * 表格1[[#This Row],[rate of fire]] * 表格1[[#This Row],[expected damage mutifactor]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J53" s="1" t="e">
-        <f>(表格1[[#This Row],[single target DPS]] * 表格1[[#This Row],[max targets]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+    </row>
+    <row r="54">
       <c r="G54" s="2"/>
-      <c r="H54" s="1" t="e">
-        <f>(1 / 表格1[[#This Row],[reload time]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I54" s="1" t="e">
-        <f>(表格1[[#This Row],[damage per hit]] * 表格1[[#This Row],[rate of fire]] * 表格1[[#This Row],[expected damage mutifactor]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J54" s="1" t="e">
-        <f>(表格1[[#This Row],[single target DPS]] * 表格1[[#This Row],[max targets]])</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
   <tableParts count="3">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>

--- a/Data/dps and hps.xlsx
+++ b/Data/dps and hps.xlsx
@@ -3,10 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="工作表2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr/>
   <extLst>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -127,6 +128,39 @@
   </si>
   <si>
     <t xml:space="preserve">chainsaw luncher</t>
+  </si>
+  <si>
+    <t>单发</t>
+  </si>
+  <si>
+    <t>高速</t>
+  </si>
+  <si>
+    <t>持续伤害</t>
+  </si>
+  <si>
+    <t>穿透</t>
+  </si>
+  <si>
+    <t>无弹道</t>
+  </si>
+  <si>
+    <t>多重</t>
+  </si>
+  <si>
+    <t>范围伤害</t>
+  </si>
+  <si>
+    <t>延迟伤害</t>
+  </si>
+  <si>
+    <t>蓄力</t>
+  </si>
+  <si>
+    <t>暴击</t>
+  </si>
+  <si>
+    <t>装填</t>
   </si>
 </sst>
 </file>
@@ -137,23 +171,32 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <color theme="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FFFFC000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left style="none"/>
       <right style="none"/>
@@ -161,17 +204,55 @@
       <bottom style="none"/>
       <diagonal style="none"/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal style="none"/>
+      <horizontal style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </horizontal>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="164" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="1" xfId="0" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="165" xfId="1" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="1" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1">
+      <protection hidden="0" locked="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2987,4 +3068,221 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="24.57421875"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25">
+      <c r="A2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="6"/>
+    </row>
+    <row r="3" ht="14.25">
+      <c r="A3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+    </row>
+    <row r="4" ht="14.25">
+      <c r="A4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="6"/>
+    </row>
+    <row r="5" ht="14.25">
+      <c r="A5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="6"/>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="A6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="6"/>
+    </row>
+    <row r="7" ht="14.25">
+      <c r="A7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" ht="14.25">
+      <c r="A8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+    </row>
+    <row r="9" ht="14.25">
+      <c r="A9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" ht="14.25">
+      <c r="A10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+    </row>
+    <row r="11" ht="14.25">
+      <c r="A11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="6"/>
+    </row>
+    <row r="12" ht="14.25"/>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
 </file>